--- a/simulator/output/excel_file.xlsx
+++ b/simulator/output/excel_file.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saleh\Desktop\Intro2AI\Intro2AI_HW2\simulator\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D48629AB-4C02-4A49-8578-05EFDB03D688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB1B11F-0DAC-4B16-B760-430DEE3EAAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excel_file.xls" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -207,7 +207,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,6 +385,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -548,8 +560,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -904,11 +918,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,29 +986,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1024,55 +1038,55 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
         <v>3</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>7</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
         <v>2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>8</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1102,29 +1116,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1180,81 +1194,81 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
+      <c r="C21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
         <v>4</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>6</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
+      <c r="C23" s="1">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23">
-        <v>9</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="F23" s="1">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
+      <c r="C25" s="2">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
         <v>6</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>4</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1336,55 +1350,55 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C33">
-        <v>10</v>
-      </c>
-      <c r="D33">
-        <v>9</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
+      <c r="C33" s="1">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
         <v>1</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C35">
-        <v>10</v>
-      </c>
-      <c r="D35">
-        <v>9</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
+      <c r="C35" s="1">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
         <v>1</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1414,81 +1428,81 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="39" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C39">
-        <v>10</v>
-      </c>
-      <c r="D39">
+      <c r="C39" s="2">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2">
         <v>1</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>9</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>9</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41">
-        <v>10</v>
-      </c>
-      <c r="D41">
+      <c r="B41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2">
+        <v>10</v>
+      </c>
+      <c r="D41" s="2">
         <v>2</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
         <v>8</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C43">
-        <v>10</v>
-      </c>
-      <c r="D43">
+      <c r="C43" s="1">
+        <v>10</v>
+      </c>
+      <c r="D43" s="1">
         <v>1</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>7</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>2</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1544,107 +1558,107 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="49" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C49">
-        <v>10</v>
-      </c>
-      <c r="D49">
+      <c r="C49" s="2">
+        <v>10</v>
+      </c>
+      <c r="D49" s="2">
         <v>1</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
         <v>8</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="2">
         <v>1</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C51">
-        <v>10</v>
-      </c>
-      <c r="D51">
+      <c r="C51" s="2">
+        <v>10</v>
+      </c>
+      <c r="D51" s="2">
         <v>2</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
         <v>8</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53">
-        <v>10</v>
-      </c>
-      <c r="D53">
+      <c r="B53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="2">
+        <v>10</v>
+      </c>
+      <c r="D53" s="2">
         <v>1</v>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>9</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>9</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C55">
-        <v>10</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>10</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="C55" s="1">
+        <v>10</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1804,29 +1818,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C69">
-        <v>10</v>
-      </c>
-      <c r="D69">
+      <c r="C69" s="2">
+        <v>10</v>
+      </c>
+      <c r="D69" s="2">
         <v>7</v>
       </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2">
         <v>3</v>
       </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>9</v>
       </c>
     </row>
